--- a/HashTables/timeSet.xlsx
+++ b/HashTables/timeSet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>RBT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,26 @@
   </si>
   <si>
     <t>BIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,22 +304,86 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="609356696"/>
-        <c:axId val="610471560"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.002557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.004751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.006311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.008218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.016504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.013899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.017303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.019185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.023108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.027388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="514504328"/>
+        <c:axId val="514502232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="609356696"/>
+        <c:axId val="514504328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11.0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610471560"/>
+        <c:crossAx val="514502232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="610471560"/>
+        <c:axId val="514502232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -307,7 +391,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609356696"/>
+        <c:crossAx val="514504328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -321,7 +405,342 @@
           <c:x val="0.141709755030621"/>
           <c:y val="0.0966462525517644"/>
           <c:w val="0.0916235783027121"/>
-          <c:h val="0.25115157480315"/>
+          <c:h val="0.334868766404199"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0704004811898513"/>
+          <c:y val="0.0509259259259259"/>
+          <c:w val="0.900807961504812"/>
+          <c:h val="0.799648950131234"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0xF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$21:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.037541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.164182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.418772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.787133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.24566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.777554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.427341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.21233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.095852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.986317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0xFF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.005039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.016504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.040793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.068383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.160402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.224986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.286565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375569</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.476728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0xFFF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.003013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.004654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.007887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.011874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.020919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.030176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.047087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.053393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0xFFFF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.002557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.004751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.006311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.008218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.016504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.013899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.017303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.019185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.023108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.027388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="521732376"/>
+        <c:axId val="606948616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="521732376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11.0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="606948616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="606948616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="521732376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.131214566929134"/>
+          <c:y val="0.101084135316419"/>
+          <c:w val="0.124340988626422"/>
+          <c:h val="0.334868766404199"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -354,15 +773,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -376,6 +795,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -705,15 +1154,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +1172,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>4.3300000000000001E-4</v>
       </c>
@@ -734,8 +1186,11 @@
       <c r="C2">
         <v>6.3E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>9.8900000000000008E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>4.7029999999999997E-3</v>
       </c>
@@ -745,8 +1200,11 @@
       <c r="C3">
         <v>4.6299999999999998E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>2.5569999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>9.7529999999999995E-3</v>
       </c>
@@ -756,8 +1214,11 @@
       <c r="C4">
         <v>8.61E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>4.751E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1.536E-2</v>
       </c>
@@ -767,8 +1228,11 @@
       <c r="C5">
         <v>1.2639999999999999E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>6.3109999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2.2342000000000001E-2</v>
       </c>
@@ -778,8 +1242,11 @@
       <c r="C6">
         <v>2.0249999999999999E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>8.2179999999999996E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2.7918999999999999E-2</v>
       </c>
@@ -789,8 +1256,11 @@
       <c r="C7">
         <v>2.1679999999999998E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>1.6504000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>3.5658000000000002E-2</v>
       </c>
@@ -800,8 +1270,11 @@
       <c r="C8">
         <v>2.4580000000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1.3899E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>4.0111000000000001E-2</v>
       </c>
@@ -811,8 +1284,11 @@
       <c r="C9">
         <v>2.8549999999999999E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1.7302999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>4.9938999999999997E-2</v>
       </c>
@@ -822,8 +1298,11 @@
       <c r="C10">
         <v>3.2980000000000002E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1.9185000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>5.4115000000000003E-2</v>
       </c>
@@ -833,8 +1312,11 @@
       <c r="C11">
         <v>3.6570000000000001E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>2.3108E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>6.5102999999999994E-2</v>
       </c>
@@ -844,9 +1326,179 @@
       <c r="C12">
         <v>5.1650000000000003E-3</v>
       </c>
+      <c r="D12">
+        <v>2.7387999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>5.0199999999999995E-4</v>
+      </c>
+      <c r="B21">
+        <v>4.06E-4</v>
+      </c>
+      <c r="C21">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="D21">
+        <v>9.8900000000000008E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>3.7540999999999998E-2</v>
+      </c>
+      <c r="B22">
+        <v>5.0390000000000001E-3</v>
+      </c>
+      <c r="C22">
+        <v>3.0130000000000001E-3</v>
+      </c>
+      <c r="D22">
+        <v>2.5569999999999998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>0.16418199999999999</v>
+      </c>
+      <c r="B23">
+        <v>1.6504000000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>4.6540000000000002E-3</v>
+      </c>
+      <c r="D23">
+        <v>4.751E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>0.41877199999999998</v>
+      </c>
+      <c r="B24">
+        <v>4.0793000000000003E-2</v>
+      </c>
+      <c r="C24">
+        <v>7.8869999999999999E-3</v>
+      </c>
+      <c r="D24">
+        <v>6.3109999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>0.78713299999999997</v>
+      </c>
+      <c r="B25">
+        <v>6.8382999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.1873999999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>8.2179999999999996E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1.24566</v>
+      </c>
+      <c r="B26">
+        <v>0.11189300000000001</v>
+      </c>
+      <c r="C26">
+        <v>1.915E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.6504000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1.7775540000000001</v>
+      </c>
+      <c r="B27">
+        <v>0.16040199999999999</v>
+      </c>
+      <c r="C27">
+        <v>2.0919E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.3899E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>2.4273410000000002</v>
+      </c>
+      <c r="B28">
+        <v>0.22498599999999999</v>
+      </c>
+      <c r="C28">
+        <v>3.0176000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.7302999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>3.2123300000000001</v>
+      </c>
+      <c r="B29">
+        <v>0.28656500000000001</v>
+      </c>
+      <c r="C29">
+        <v>3.7150000000000002E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.9185000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>4.0958519999999998</v>
+      </c>
+      <c r="B30">
+        <v>0.37556899999999999</v>
+      </c>
+      <c r="C30">
+        <v>4.7086999999999997E-2</v>
+      </c>
+      <c r="D30">
+        <v>2.3108E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>4.9863169999999997</v>
+      </c>
+      <c r="B31">
+        <v>0.47672799999999999</v>
+      </c>
+      <c r="C31">
+        <v>5.3393000000000003E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.7387999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/HashTables/timeSet.xlsx
+++ b/HashTables/timeSet.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="24560" windowHeight="15400" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -19,37 +21,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
-    <t>RBT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>IntArraySet</t>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> Num-Nodes</t>
   </si>
   <si>
-    <t>BIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>RBTSet</t>
   </si>
   <si>
-    <t>0xF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>BitArraySet</t>
   </si>
   <si>
-    <t>0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>HashSet</t>
   </si>
   <si>
-    <t>0xFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>NoEqualHashSet</t>
   </si>
   <si>
-    <t>0xFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HST</t>
+    <t>HashSet FFFFFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +104,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.106321741032371"/>
           <c:y val="0.0509259259259259"/>
-          <c:w val="0.864886701662292"/>
+          <c:w val="0.842963035870516"/>
           <c:h val="0.799648950131234"/>
         </c:manualLayout>
       </c:layout>
@@ -123,11 +115,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Sheet2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RBT</c:v>
+                  <c:v>IntArraySet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -137,44 +129,86 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.000433</c:v>
+                  <c:v>638.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.004703</c:v>
+                  <c:v>6912.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.009753</c:v>
+                  <c:v>13238.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01536</c:v>
+                  <c:v>19683.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.022342</c:v>
+                  <c:v>25811.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.027919</c:v>
+                  <c:v>32105.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.035658</c:v>
+                  <c:v>38580.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.040111</c:v>
+                  <c:v>44964.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.049939</c:v>
+                  <c:v>51117.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.054115</c:v>
+                  <c:v>57675.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.065103</c:v>
+                  <c:v>64060.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.002234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.002585</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.003393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.003336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.003788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -185,11 +219,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INT</c:v>
+                  <c:v>RBTSet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -199,44 +233,86 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.000169</c:v>
+                  <c:v>638.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000522</c:v>
+                  <c:v>6912.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00084</c:v>
+                  <c:v>13238.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.001216</c:v>
+                  <c:v>19683.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.001574</c:v>
+                  <c:v>25811.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.002049</c:v>
+                  <c:v>32105.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.002304</c:v>
+                  <c:v>38580.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.003617</c:v>
+                  <c:v>44964.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.003048</c:v>
+                  <c:v>51117.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.003435</c:v>
+                  <c:v>57675.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.003761</c:v>
+                  <c:v>64060.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.009696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.018804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.020678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.027019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.032296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.042747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.045423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.054817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -247,11 +323,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIT</c:v>
+                  <c:v>BitArraySet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -261,44 +337,86 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.3E-5</c:v>
+                  <c:v>638.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000463</c:v>
+                  <c:v>6912.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000861</c:v>
+                  <c:v>13238.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.001264</c:v>
+                  <c:v>19683.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.002025</c:v>
+                  <c:v>25811.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.002168</c:v>
+                  <c:v>32105.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.002458</c:v>
+                  <c:v>38580.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.002855</c:v>
+                  <c:v>44964.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.003298</c:v>
+                  <c:v>51117.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.003657</c:v>
+                  <c:v>57675.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.005165</c:v>
+                  <c:v>64060.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.00012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.001705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.001968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.002346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.003246</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.003139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.003574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.004077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,11 +427,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet2!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HST</c:v>
+                  <c:v>HashSet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -323,67 +441,108 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.000989</c:v>
+                  <c:v>638.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.002557</c:v>
+                  <c:v>6912.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.004751</c:v>
+                  <c:v>13238.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.006311</c:v>
+                  <c:v>19683.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.008218</c:v>
+                  <c:v>25811.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.016504</c:v>
+                  <c:v>32105.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.013899</c:v>
+                  <c:v>38580.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.017303</c:v>
+                  <c:v>44964.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.019185</c:v>
+                  <c:v>51117.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.023108</c:v>
+                  <c:v>57675.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.027388</c:v>
+                  <c:v>64060.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.002727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.004374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.006302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.010264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.012658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.022759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.023225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.023383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="514504328"/>
-        <c:axId val="514502232"/>
+        <c:axId val="561121992"/>
+        <c:axId val="561163784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="514504328"/>
+        <c:axId val="561121992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="11.0"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514502232"/>
+        <c:crossAx val="561163784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="514502232"/>
+        <c:axId val="561163784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +550,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514504328"/>
+        <c:crossAx val="561121992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -402,26 +561,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.141709755030621"/>
-          <c:y val="0.0966462525517644"/>
-          <c:w val="0.0916235783027121"/>
-          <c:h val="0.334868766404199"/>
+          <c:x val="0.17883552055993"/>
+          <c:y val="0.0779359871682706"/>
+          <c:w val="0.173942257217848"/>
+          <c:h val="0.204905534117017"/>
         </c:manualLayout>
       </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -445,9 +590,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0704004811898513"/>
+          <c:x val="0.092432852143482"/>
           <c:y val="0.0509259259259259"/>
-          <c:w val="0.900807961504812"/>
+          <c:w val="0.849699037620297"/>
           <c:h val="0.799648950131234"/>
         </c:manualLayout>
       </c:layout>
@@ -458,11 +603,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
+              <c:f>Sheet3!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0xF</c:v>
+                  <c:v>IntArraySet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -472,44 +617,86 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$A$31</c:f>
+              <c:f>Sheet3!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.000502</c:v>
+                  <c:v>6296.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.037541</c:v>
+                  <c:v>69504.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.164182</c:v>
+                  <c:v>132631.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.418772</c:v>
+                  <c:v>195766.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.787133</c:v>
+                  <c:v>259152.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.24566</c:v>
+                  <c:v>322689.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.777554</c:v>
+                  <c:v>385704.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.427341</c:v>
+                  <c:v>449020.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.21233</c:v>
+                  <c:v>511674.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.095852</c:v>
+                  <c:v>574956.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.986317</c:v>
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.004057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.007539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.011769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.015305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.019921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.022128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.027256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.032043</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.035733</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.037445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,11 +707,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
+              <c:f>Sheet3!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0xFF</c:v>
+                  <c:v>RBTSet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -534,44 +721,86 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$31</c:f>
+              <c:f>Sheet3!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.000406</c:v>
+                  <c:v>6296.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.005039</c:v>
+                  <c:v>69504.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.016504</c:v>
+                  <c:v>132631.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.040793</c:v>
+                  <c:v>195766.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.068383</c:v>
+                  <c:v>259152.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.111893</c:v>
+                  <c:v>322689.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.160402</c:v>
+                  <c:v>385704.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.224986</c:v>
+                  <c:v>449020.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.286565</c:v>
+                  <c:v>511674.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.375569</c:v>
+                  <c:v>574956.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.476728</c:v>
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.004259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.070678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.149629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.250061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.364404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.493262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.618489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.782295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.913921</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.058342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.20281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,11 +811,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$20</c:f>
+              <c:f>Sheet3!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0xFFF</c:v>
+                  <c:v>BitArraySet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -596,44 +825,86 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$C$31</c:f>
+              <c:f>Sheet3!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.000424</c:v>
+                  <c:v>6296.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003013</c:v>
+                  <c:v>69504.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.004654</c:v>
+                  <c:v>132631.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.007887</c:v>
+                  <c:v>195766.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.011874</c:v>
+                  <c:v>259152.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01915</c:v>
+                  <c:v>322689.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.020919</c:v>
+                  <c:v>385704.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.030176</c:v>
+                  <c:v>449020.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03715</c:v>
+                  <c:v>511674.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.047087</c:v>
+                  <c:v>574956.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.053393</c:v>
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.004482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.008112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.013215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.018234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.020607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.023581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.028597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.033612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.039324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,11 +915,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$20</c:f>
+              <c:f>Sheet3!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0xFFFF</c:v>
+                  <c:v>HashSet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -658,67 +929,212 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$31</c:f>
+              <c:f>Sheet3!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.000989</c:v>
+                  <c:v>6296.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.002557</c:v>
+                  <c:v>69504.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.004751</c:v>
+                  <c:v>132631.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.006311</c:v>
+                  <c:v>195766.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.008218</c:v>
+                  <c:v>259152.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.016504</c:v>
+                  <c:v>322689.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.013899</c:v>
+                  <c:v>385704.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.017303</c:v>
+                  <c:v>449020.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.019185</c:v>
+                  <c:v>511674.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.023108</c:v>
+                  <c:v>574956.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.027388</c:v>
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.003069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.026032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.072183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.145974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.252483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.547011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.735804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.420452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="521732376"/>
-        <c:axId val="606948616"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoEqualHashSet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6296.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69504.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132631.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195766.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259152.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322689.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385704.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>449020.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>511674.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574956.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.002619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.022779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.061676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.095524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.172319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.271833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.390897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.560238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.759301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.998377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.258424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="82840664"/>
+        <c:axId val="82847096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="521732376"/>
+        <c:axId val="82840664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="11.0"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606948616"/>
+        <c:crossAx val="82847096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606948616"/>
+        <c:axId val="82847096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +1142,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521732376"/>
+        <c:crossAx val="82840664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -737,26 +1153,604 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.131214566929134"/>
-          <c:y val="0.101084135316419"/>
-          <c:w val="0.124340988626422"/>
-          <c:h val="0.334868766404199"/>
+          <c:x val="0.124739282589676"/>
+          <c:y val="0.0731142461358997"/>
+          <c:w val="0.140156430446194"/>
+          <c:h val="0.181555355279385"/>
         </c:manualLayout>
       </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.092432852143482"/>
+          <c:y val="0.0509259259259259"/>
+          <c:w val="0.8604242326852"/>
+          <c:h val="0.799648950131234"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IntArraySet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6296.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69504.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132631.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195766.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259152.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322689.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385704.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>449020.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>511674.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574956.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.004005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.007551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.012296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.015534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.019618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.021936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.027028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.033009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.033637</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.037024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RBTSet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6296.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69504.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132631.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195766.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259152.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322689.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385704.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>449020.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>511674.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574956.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.004249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.070786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.149179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.248586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.365581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.628578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.778689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.947016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.047866</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.199035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitArraySet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6296.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69504.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132631.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195766.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259152.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322689.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385704.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>449020.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>511674.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574956.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.004337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.008115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.012444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.017386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.020449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.023479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.028059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.032831</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.038509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.039595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HashSet FFFFFF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6296.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69504.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132631.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195766.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259152.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322689.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385704.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>449020.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>511674.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574956.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.122248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.164811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.209635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.261367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.311055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.467669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.527402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.578279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoEqualHashSet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6296.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69504.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132631.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195766.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259152.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322689.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385704.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>449020.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>511674.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574956.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>638054.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.002784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.020242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.059981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.169797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.272578</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.388322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.566421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.758756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.253476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="606287272"/>
+        <c:axId val="606724232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="606287272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="606724232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="606724232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="606287272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.144183727034121"/>
+          <c:y val="0.0638549868766404"/>
+          <c:w val="0.19068902101523"/>
+          <c:h val="0.25115157480315"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -772,16 +1766,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -800,22 +1829,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -824,7 +1858,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1154,348 +2188,742 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>638</v>
+      </c>
+      <c r="B2">
+        <v>1.93E-4</v>
+      </c>
+      <c r="C2">
+        <v>5.0900000000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>1.2E-4</v>
+      </c>
+      <c r="E2">
+        <v>6.9899999999999997E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>6912</v>
+      </c>
+      <c r="B3">
+        <v>4.9700000000000005E-4</v>
+      </c>
+      <c r="C3">
+        <v>4.8700000000000002E-3</v>
+      </c>
+      <c r="D3">
+        <v>7.1500000000000003E-4</v>
+      </c>
+      <c r="E3">
+        <v>2.7269999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>13238</v>
+      </c>
+      <c r="B4">
+        <v>8.1700000000000002E-4</v>
+      </c>
+      <c r="C4">
+        <v>9.6959999999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.1310000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>4.3740000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>19683</v>
+      </c>
+      <c r="B5">
+        <v>1.2229999999999999E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.8804000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.201E-3</v>
+      </c>
+      <c r="E5">
+        <v>6.3020000000000003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>25811</v>
+      </c>
+      <c r="B6">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.0677999999999998E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="E6">
+        <v>9.3760000000000007E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>32105</v>
+      </c>
+      <c r="B7">
+        <v>1.89E-3</v>
+      </c>
+      <c r="C7">
+        <v>2.7019000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.9680000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.0264000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>38580</v>
+      </c>
+      <c r="B8">
+        <v>2.2339999999999999E-3</v>
+      </c>
+      <c r="C8">
+        <v>3.2295999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.346E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.2658000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>44964</v>
+      </c>
+      <c r="B9">
+        <v>2.5850000000000001E-3</v>
+      </c>
+      <c r="C9">
+        <v>4.2747E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.2460000000000002E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.8679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>51117</v>
+      </c>
+      <c r="B10">
+        <v>3.3930000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>4.5422999999999998E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.1389999999999999E-3</v>
+      </c>
+      <c r="E10">
+        <v>2.2759000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>57675</v>
+      </c>
+      <c r="B11">
+        <v>3.336E-3</v>
+      </c>
+      <c r="C11">
+        <v>5.4816999999999998E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.5739999999999999E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.3224999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>64060</v>
+      </c>
+      <c r="B12">
+        <v>3.7880000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <v>5.858E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.0769999999999999E-3</v>
+      </c>
+      <c r="E12">
+        <v>2.3383000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2">
+        <v>6296</v>
+      </c>
+      <c r="C2">
+        <v>6.0800000000000003E-4</v>
+      </c>
+      <c r="D2">
+        <v>4.2589999999999998E-3</v>
+      </c>
+      <c r="E2">
+        <v>7.1299999999999998E-4</v>
+      </c>
+      <c r="F2">
+        <v>3.0690000000000001E-3</v>
+      </c>
+      <c r="G2">
+        <v>2.6189999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3">
+        <v>69504</v>
+      </c>
+      <c r="C3">
+        <v>4.0569999999999998E-3</v>
+      </c>
+      <c r="D3">
+        <v>7.0678000000000005E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.4819999999999999E-3</v>
+      </c>
+      <c r="F3">
+        <v>2.6032E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.2779000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>132631</v>
+      </c>
+      <c r="C4">
+        <v>7.5389999999999997E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.14962900000000001</v>
+      </c>
+      <c r="E4">
+        <v>8.1119999999999994E-3</v>
+      </c>
+      <c r="F4">
+        <v>7.2182999999999997E-2</v>
+      </c>
+      <c r="G4">
+        <v>6.1676000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>195766</v>
+      </c>
+      <c r="C5">
+        <v>1.1769E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.25006099999999998</v>
+      </c>
+      <c r="E5">
+        <v>1.3214999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.14597399999999999</v>
+      </c>
+      <c r="G5">
+        <v>9.5523999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>259152</v>
+      </c>
+      <c r="C6">
+        <v>1.5304999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.36440400000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.8234E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.25248300000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.172319</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>322689</v>
+      </c>
+      <c r="C7">
+        <v>1.9921000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.49326199999999998</v>
+      </c>
+      <c r="E7">
+        <v>2.0607E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.38736999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.27183299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>385704</v>
+      </c>
+      <c r="C8">
+        <v>2.2127999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.61848899999999996</v>
+      </c>
+      <c r="E8">
+        <v>2.3581000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.54701100000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.39089699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>449020</v>
+      </c>
+      <c r="C9">
+        <v>2.7255999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.78229499999999996</v>
+      </c>
+      <c r="E9">
+        <v>2.8597000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.73580400000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.56023800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>511674</v>
+      </c>
+      <c r="C10">
+        <v>3.2043000000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.91392099999999998</v>
+      </c>
+      <c r="E10">
+        <v>3.3612000000000003E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.759301</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>574956</v>
+      </c>
+      <c r="C11">
+        <v>3.5733000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.0583419999999999</v>
+      </c>
+      <c r="E11">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.1709000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.99837699999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>638054</v>
+      </c>
+      <c r="C12">
+        <v>3.7444999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.2028099999999999</v>
+      </c>
+      <c r="E12">
+        <v>3.9323999999999998E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.420452</v>
+      </c>
+      <c r="G12">
+        <v>1.258424</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>4.3300000000000001E-4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2">
-        <v>1.6899999999999999E-4</v>
+        <v>6296</v>
       </c>
       <c r="C2">
-        <v>6.3E-5</v>
+        <v>6.4800000000000003E-4</v>
       </c>
       <c r="D2">
-        <v>9.8900000000000008E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>4.7029999999999997E-3</v>
-      </c>
+        <v>4.2490000000000002E-3</v>
+      </c>
+      <c r="E2">
+        <v>5.4600000000000004E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.122248</v>
+      </c>
+      <c r="G2">
+        <v>2.784E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3">
-        <v>5.22E-4</v>
+        <v>69504</v>
       </c>
       <c r="C3">
-        <v>4.6299999999999998E-4</v>
+        <v>4.0049999999999999E-3</v>
       </c>
       <c r="D3">
-        <v>2.5569999999999998E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>9.7529999999999995E-3</v>
-      </c>
+        <v>7.0786000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.3369999999999997E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.13553999999999999</v>
+      </c>
+      <c r="G3">
+        <v>2.0242E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4">
-        <v>8.4000000000000003E-4</v>
+        <v>132631</v>
       </c>
       <c r="C4">
-        <v>8.61E-4</v>
+        <v>7.5510000000000004E-3</v>
       </c>
       <c r="D4">
-        <v>4.751E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1.536E-2</v>
-      </c>
+        <v>0.14917900000000001</v>
+      </c>
+      <c r="E4">
+        <v>8.1150000000000007E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.16481100000000001</v>
+      </c>
+      <c r="G4">
+        <v>5.9981E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5">
-        <v>1.2160000000000001E-3</v>
+        <v>195766</v>
       </c>
       <c r="C5">
-        <v>1.2639999999999999E-3</v>
+        <v>1.2296E-2</v>
       </c>
       <c r="D5">
-        <v>6.3109999999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2.2342000000000001E-2</v>
-      </c>
+        <v>0.248586</v>
+      </c>
+      <c r="E5">
+        <v>1.2444E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.20963499999999999</v>
+      </c>
+      <c r="G5">
+        <v>9.9589999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6">
-        <v>1.5740000000000001E-3</v>
+        <v>259152</v>
       </c>
       <c r="C6">
-        <v>2.0249999999999999E-3</v>
+        <v>1.5533999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>8.2179999999999996E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2.7918999999999999E-2</v>
-      </c>
+        <v>0.36558099999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.7385999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.26136700000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.169797</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7">
-        <v>2.049E-3</v>
+        <v>322689</v>
       </c>
       <c r="C7">
-        <v>2.1679999999999998E-3</v>
+        <v>1.9618E-2</v>
       </c>
       <c r="D7">
-        <v>1.6504000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3.5658000000000002E-2</v>
-      </c>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="E7">
+        <v>2.0448999999999998E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.31105500000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.27257799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8">
-        <v>2.3040000000000001E-3</v>
+        <v>385704</v>
       </c>
       <c r="C8">
-        <v>2.4580000000000001E-3</v>
+        <v>2.1936000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>1.3899E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>4.0111000000000001E-2</v>
-      </c>
+        <v>0.62857799999999997</v>
+      </c>
+      <c r="E8">
+        <v>2.3479E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.35504000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.388322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9">
-        <v>3.617E-3</v>
+        <v>449020</v>
       </c>
       <c r="C9">
-        <v>2.8549999999999999E-3</v>
+        <v>2.7028E-2</v>
       </c>
       <c r="D9">
-        <v>1.7302999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>4.9938999999999997E-2</v>
-      </c>
+        <v>0.77868899999999996</v>
+      </c>
+      <c r="E9">
+        <v>2.8059000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.41015000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.56642099999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10">
-        <v>3.0479999999999999E-3</v>
+        <v>511674</v>
       </c>
       <c r="C10">
-        <v>3.2980000000000002E-3</v>
+        <v>3.3008999999999997E-2</v>
       </c>
       <c r="D10">
-        <v>1.9185000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>5.4115000000000003E-2</v>
-      </c>
+        <v>0.94701599999999997</v>
+      </c>
+      <c r="E10">
+        <v>3.2830999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.467669</v>
+      </c>
+      <c r="G10">
+        <v>0.75875599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11">
-        <v>3.4350000000000001E-3</v>
+        <v>574956</v>
       </c>
       <c r="C11">
-        <v>3.6570000000000001E-3</v>
+        <v>3.3637E-2</v>
       </c>
       <c r="D11">
-        <v>2.3108E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>6.5102999999999994E-2</v>
-      </c>
+        <v>1.047866</v>
+      </c>
+      <c r="E11">
+        <v>3.8509000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.52740200000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.97901000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12">
-        <v>3.761E-3</v>
+        <v>638054</v>
       </c>
       <c r="C12">
-        <v>5.1650000000000003E-3</v>
+        <v>3.7024000000000001E-2</v>
       </c>
       <c r="D12">
-        <v>2.7387999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>5.0199999999999995E-4</v>
-      </c>
-      <c r="B21">
-        <v>4.06E-4</v>
-      </c>
-      <c r="C21">
-        <v>4.2400000000000001E-4</v>
-      </c>
-      <c r="D21">
-        <v>9.8900000000000008E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>3.7540999999999998E-2</v>
-      </c>
-      <c r="B22">
-        <v>5.0390000000000001E-3</v>
-      </c>
-      <c r="C22">
-        <v>3.0130000000000001E-3</v>
-      </c>
-      <c r="D22">
-        <v>2.5569999999999998E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>0.16418199999999999</v>
-      </c>
-      <c r="B23">
-        <v>1.6504000000000001E-2</v>
-      </c>
-      <c r="C23">
-        <v>4.6540000000000002E-3</v>
-      </c>
-      <c r="D23">
-        <v>4.751E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>0.41877199999999998</v>
-      </c>
-      <c r="B24">
-        <v>4.0793000000000003E-2</v>
-      </c>
-      <c r="C24">
-        <v>7.8869999999999999E-3</v>
-      </c>
-      <c r="D24">
-        <v>6.3109999999999998E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>0.78713299999999997</v>
-      </c>
-      <c r="B25">
-        <v>6.8382999999999999E-2</v>
-      </c>
-      <c r="C25">
-        <v>1.1873999999999999E-2</v>
-      </c>
-      <c r="D25">
-        <v>8.2179999999999996E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>1.24566</v>
-      </c>
-      <c r="B26">
-        <v>0.11189300000000001</v>
-      </c>
-      <c r="C26">
-        <v>1.915E-2</v>
-      </c>
-      <c r="D26">
-        <v>1.6504000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>1.7775540000000001</v>
-      </c>
-      <c r="B27">
-        <v>0.16040199999999999</v>
-      </c>
-      <c r="C27">
-        <v>2.0919E-2</v>
-      </c>
-      <c r="D27">
-        <v>1.3899E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>2.4273410000000002</v>
-      </c>
-      <c r="B28">
-        <v>0.22498599999999999</v>
-      </c>
-      <c r="C28">
-        <v>3.0176000000000001E-2</v>
-      </c>
-      <c r="D28">
-        <v>1.7302999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>3.2123300000000001</v>
-      </c>
-      <c r="B29">
-        <v>0.28656500000000001</v>
-      </c>
-      <c r="C29">
-        <v>3.7150000000000002E-2</v>
-      </c>
-      <c r="D29">
-        <v>1.9185000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>4.0958519999999998</v>
-      </c>
-      <c r="B30">
-        <v>0.37556899999999999</v>
-      </c>
-      <c r="C30">
-        <v>4.7086999999999997E-2</v>
-      </c>
-      <c r="D30">
-        <v>2.3108E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>4.9863169999999997</v>
-      </c>
-      <c r="B31">
-        <v>0.47672799999999999</v>
-      </c>
-      <c r="C31">
-        <v>5.3393000000000003E-2</v>
-      </c>
-      <c r="D31">
-        <v>2.7387999999999999E-2</v>
+        <v>1.1990350000000001</v>
+      </c>
+      <c r="E12">
+        <v>3.9594999999999998E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.57827899999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.253476</v>
       </c>
     </row>
   </sheetData>
